--- a/lesson14/lenta-super.xlsx
+++ b/lesson14/lenta-super.xlsx
@@ -280,12 +280,12 @@
     <t>Оливки MAESTRO DE OLIVA б/к ключ, Испания, 300 г</t>
   </si>
   <si>
+    <t>Маслины IBERICA б/к ключ, Испания, 360 г</t>
+  </si>
+  <si>
     <t>Маслины IBERICA б/к ключ, Испания, 420 г</t>
   </si>
   <si>
-    <t>Маслины IBERICA б/к ключ, Испания, 360 г</t>
-  </si>
-  <si>
     <t>Маслины IBERICA б/к ключ, Испания, 300 г</t>
   </si>
   <si>
@@ -502,10 +502,10 @@
     <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/bb72a7822a35e1739045386278b39b4f/orig</t>
   </si>
   <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/70e17ac3dba4d7e5727f3412f46900cb/orig</t>
+  </si>
+  <si>
     <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/f5ff42fcb9e39046b1ea7a8e3047cbb2/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/70e17ac3dba4d7e5727f3412f46900cb/orig</t>
   </si>
   <si>
     <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/e8a58fdb5e27bf7c7d856da22d5b8c7f/orig</t>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -2836,18 +2836,18 @@
         <v>28</v>
       </c>
       <c r="H59" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I59" t="s">
         <v>188</v>
       </c>
       <c r="J59">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -2868,13 +2868,13 @@
         <v>28</v>
       </c>
       <c r="H60" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I60" t="s">
         <v>188</v>
       </c>
       <c r="J60">
-        <v>360</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3039,7 +3039,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B66" t="s">
         <v>27</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B73" t="s">
         <v>29</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B74" t="s">
         <v>29</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>

--- a/lesson14/lenta-super.xlsx
+++ b/lesson14/lenta-super.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="186">
   <si>
     <t>count</t>
   </si>
@@ -34,6 +34,9 @@
     <t>priceAfter</t>
   </si>
   <si>
+    <t>amount</t>
+  </si>
+  <si>
     <t>discount</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
     <t>endDate</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
     <t>Станки для бритья</t>
   </si>
   <si>
@@ -154,9 +154,6 @@
     <t>Шоколад DOLCE ALBERO с ароматом мяты темный, Португалия, 100 г</t>
   </si>
   <si>
-    <t>Шоколад DOLCE ALBERO 70% какао горький, Франция, 100 г</t>
-  </si>
-  <si>
     <t>Шоколад молочный DOLCE ALBERO с клюквой и злаками, Португалия, 100 г</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>Батончик EVERYDAY Gigant орехи и мед, Россия, 50 г</t>
   </si>
   <si>
-    <t>Батончик вафельный ДЖУМКА С мягкой карамелью и воздушной кукурузой, Россия, 37 г</t>
-  </si>
-  <si>
     <t>Батончик EVERYDAY Gigant слива и шоколад, Россия, 50 г</t>
   </si>
   <si>
@@ -331,16 +325,16 @@
     <t>Карамель РОТ ФРОНТ Мечта, Россия, 250 г</t>
   </si>
   <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/5ef31583e17039153a3274c662fb780d/orig</t>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1640196/5ef31583e17039153a3274c662fb780d/orig</t>
   </si>
   <si>
     <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/42db5029497a8403bca97f28e645cbc5/orig</t>
   </si>
   <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/9e57ca44d27026ce144f9f17b7591638/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/bdac0b958145c3b8f61f91f613bf43ab/orig</t>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/9e57ca44d27026ce144f9f17b7591638/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/472110/bdac0b958145c3b8f61f91f613bf43ab/orig</t>
   </si>
   <si>
     <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/c4d53bbd3d11b799f0e8bf2cb02a2954/orig</t>
@@ -349,208 +343,202 @@
     <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/2f120abeea8955982f3b07c0927b9306/orig</t>
   </si>
   <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/cf3397826e8542171aeab8c3c81cd10b/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/7b4030ff577a40c57c28801d3434b4bb/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/5571d88574b5797983c891de79029428/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/e67f3952f077d81ccb8572d9fc60f7f2/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/7e5f001b85e6056dd1ed6cd38f76e699/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/c616c83dc1b3ec91234befb6d2b09381/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/bda42147de006493603a840396fa2a84/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/2acf29b87788121b6dbf65e751d80db3/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/cb66edf85873fafd551fcaf1489d9277/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/b5569ed5afbef776d97b7399d1224091/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/12f46fa7cc578586323745e12dedf855/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/3bb1f04baad77e52c37278f12b8ba1b8/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/4f1cf186f3a01f5a0984e1cd28d352db/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/6f40511112680b678ad0daf04d44fca7/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/50759e74f8f543b47a69d0a4ad6530b2/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/d58fd018a14b76d3f75ce9d8f909dace/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/43376954ebeb0ba07adcdb447c10b3bd/orig</t>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/cf3397826e8542171aeab8c3c81cd10b/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/7b4030ff577a40c57c28801d3434b4bb/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/5571d88574b5797983c891de79029428/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/e67f3952f077d81ccb8572d9fc60f7f2/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/7e5f001b85e6056dd1ed6cd38f76e699/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/c616c83dc1b3ec91234befb6d2b09381/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/bda42147de006493603a840396fa2a84/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/2acf29b87788121b6dbf65e751d80db3/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/cb66edf85873fafd551fcaf1489d9277/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/12f46fa7cc578586323745e12dedf855/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/3bb1f04baad77e52c37278f12b8ba1b8/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/4f1cf186f3a01f5a0984e1cd28d352db/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/6f40511112680b678ad0daf04d44fca7/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/50759e74f8f543b47a69d0a4ad6530b2/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/d58fd018a14b76d3f75ce9d8f909dace/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/43376954ebeb0ba07adcdb447c10b3bd/orig</t>
   </si>
   <si>
     <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/a04c457181cdec00052e487a1799a611/orig</t>
   </si>
   <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/94ae0545e02daec6fd31274e2571779d/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/03d91867e9d4f0115a02a9c5ced2ecae/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/7772b83db06903314939c385ae8b4f84/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/3315559e95f7a80b2bbe23727f54bebf/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/f0f278777d927af23335690d61c6237f/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/5b7c4049447e39dbd892b239483d11a7/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/08786fe7ad2803b240d3fef4c865b8fb/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/e017c1fc8be9027860a3876a2674032b/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/6155e0f9c13cb2952676642254dec6b6/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/058b8d70742d9af83b87c1152ca710c0/orig</t>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1640196/94ae0545e02daec6fd31274e2571779d/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/03d91867e9d4f0115a02a9c5ced2ecae/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/7772b83db06903314939c385ae8b4f84/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/3315559e95f7a80b2bbe23727f54bebf/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/f0f278777d927af23335690d61c6237f/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/5b7c4049447e39dbd892b239483d11a7/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/08786fe7ad2803b240d3fef4c865b8fb/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/472110/e017c1fc8be9027860a3876a2674032b/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/6155e0f9c13cb2952676642254dec6b6/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/058b8d70742d9af83b87c1152ca710c0/orig</t>
   </si>
   <si>
     <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/a68d2a1048eec0f8a51980fe856030aa/orig</t>
   </si>
   <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/9841cac134a74d28826f5a1daff6208a/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/e3de16ed98b9291aa0339ce60f5ba20a/orig</t>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/9841cac134a74d28826f5a1daff6208a/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/e3de16ed98b9291aa0339ce60f5ba20a/orig</t>
   </si>
   <si>
     <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/4b29ebedc9a753d7fa343882110f4b55/orig</t>
   </si>
   <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/7a17bde057bd1007b24180147e11f460/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/d6cc9e3d7d7e74883757bf46e6ee91e8/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/b9ec61f04c732ef91d390376c1674289/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/366364118ad45e78dd47b8ea484837c6/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/39d4b900a6010d0a7f4f9a753b2f1c99/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/17e6cc9b720eecc87b631908a23e4f9f/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/9b19de02a57dab1b0ed335485f197e64/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/d670408a416e62eb987921a1f5bb1608/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/ba341b9b77413f1f32fdb682c737d1ac/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/35b134a8b7954a3c6bcfc74c5c6fad87/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/2e5940c4961b03aa00b70bd3178f3345/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/e989cfd51ca66aba64c804fa5e176211/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/020303067a6fbe76d86579654edfce99/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/6211937726066670b21f1eeeca6bbd0f/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/de51407f2dafa3b35e496ee66885f855/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/fe0f13a58fcd9edc0779f61661eba3b2/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/f42bae9574732b62edb2d8e4fb0aafbe/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/7e58730edd90b167e507244b29a51e7d/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/bb72a7822a35e1739045386278b39b4f/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/70e17ac3dba4d7e5727f3412f46900cb/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/f5ff42fcb9e39046b1ea7a8e3047cbb2/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/e8a58fdb5e27bf7c7d856da22d5b8c7f/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/450c858d74c2140a87ab432d78f2613e/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/418d3d077f41654565680a458512e65e/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/099c055f5d2269bf192a2facc9ec8fb0/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/7f1fb6c2b0867452b902f5937fefd903/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/b30ce140b8b398eb744754a0f06b0a2c/orig</t>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/7a17bde057bd1007b24180147e11f460/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/d6cc9e3d7d7e74883757bf46e6ee91e8/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/b9ec61f04c732ef91d390376c1674289/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/366364118ad45e78dd47b8ea484837c6/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/39d4b900a6010d0a7f4f9a753b2f1c99/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/17e6cc9b720eecc87b631908a23e4f9f/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/9b19de02a57dab1b0ed335485f197e64/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/d670408a416e62eb987921a1f5bb1608/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/ba341b9b77413f1f32fdb682c737d1ac/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/35b134a8b7954a3c6bcfc74c5c6fad87/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/2e5940c4961b03aa00b70bd3178f3345/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/e989cfd51ca66aba64c804fa5e176211/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/020303067a6fbe76d86579654edfce99/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/6211937726066670b21f1eeeca6bbd0f/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/de51407f2dafa3b35e496ee66885f855/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/fe0f13a58fcd9edc0779f61661eba3b2/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/f42bae9574732b62edb2d8e4fb0aafbe/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/7e58730edd90b167e507244b29a51e7d/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/bb72a7822a35e1739045386278b39b4f/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/70e17ac3dba4d7e5727f3412f46900cb/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/f5ff42fcb9e39046b1ea7a8e3047cbb2/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/e8a58fdb5e27bf7c7d856da22d5b8c7f/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/5346cf232c21e08cc355e4bbd0fd2ad7/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/418d3d077f41654565680a458512e65e/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/472110/099c055f5d2269bf192a2facc9ec8fb0/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/7f1fb6c2b0867452b902f5937fefd903/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/b30ce140b8b398eb744754a0f06b0a2c/orig</t>
   </si>
   <si>
     <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/2600cc0d81aea094538dd4d01b31fb87/orig</t>
   </si>
   <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/9ac9314acfa6851c6dcb06c7036542da/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/c8835b7fea0b0f71da97d998b888a4b7/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2353975/6b3118b048b286f5774475311d75dd73/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/d8f7d50374554777ed89a483daf52d17/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/a40e7b2d195568bd645ceb66514764bd/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/03548240aee197132b7809bda5b2a7fb/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/735ef77f1a48c5a7edba3f1c658541bc/orig</t>
-  </si>
-  <si>
-    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1527502/807238909d43059ab2beb2beb3d1183e/orig</t>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1530267/9ac9314acfa6851c6dcb06c7036542da/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/901350/c8835b7fea0b0f71da97d998b888a4b7/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/6b3118b048b286f5774475311d75dd73/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/a40e7b2d195568bd645ceb66514764bd/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/03548240aee197132b7809bda5b2a7fb/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/1677212/735ef77f1a48c5a7edba3f1c658541bc/orig</t>
+  </si>
+  <si>
+    <t>https://leonardo.edadeal.io/dyn/cr/get-edadeal/2265143/807238909d43059ab2beb2beb3d1183e/orig</t>
   </si>
   <si>
     <t>2022-08-01T00:00:00Z</t>
@@ -954,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +982,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1003,7 +991,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2">
         <v>149.99</v>
@@ -1012,21 +1000,21 @@
         <v>79.98999999999999</v>
       </c>
       <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
-        <v>179</v>
-      </c>
       <c r="I2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
+        <v>175</v>
+      </c>
+      <c r="J2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1035,7 +1023,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>149.99</v>
@@ -1044,21 +1032,21 @@
         <v>79.98999999999999</v>
       </c>
       <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
-        <v>179</v>
-      </c>
       <c r="I3" t="s">
-        <v>188</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
+        <v>175</v>
+      </c>
+      <c r="J3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1067,7 +1055,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>299.99</v>
@@ -1076,21 +1064,21 @@
         <v>165.99</v>
       </c>
       <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
-        <v>179</v>
-      </c>
       <c r="I4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J4">
-        <v>200</v>
+        <v>175</v>
+      </c>
+      <c r="J4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1099,7 +1087,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>235.39</v>
@@ -1108,21 +1096,21 @@
         <v>209.99</v>
       </c>
       <c r="G5">
+        <v>73</v>
+      </c>
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
-        <v>179</v>
-      </c>
       <c r="I5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J5">
-        <v>73</v>
+        <v>175</v>
+      </c>
+      <c r="J5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1131,7 +1119,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>379.99</v>
@@ -1140,21 +1128,21 @@
         <v>259.89</v>
       </c>
       <c r="G6">
+        <v>75</v>
+      </c>
+      <c r="H6">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
-        <v>179</v>
-      </c>
       <c r="I6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J6">
-        <v>75</v>
+        <v>175</v>
+      </c>
+      <c r="J6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1163,7 +1151,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7">
         <v>189.99</v>
@@ -1172,21 +1160,21 @@
         <v>149.99</v>
       </c>
       <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
-        <v>180</v>
-      </c>
       <c r="I7" t="s">
-        <v>188</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
+        <v>176</v>
+      </c>
+      <c r="J7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1195,7 +1183,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>189.99</v>
@@ -1204,21 +1192,21 @@
         <v>149.99</v>
       </c>
       <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
-        <v>180</v>
-      </c>
       <c r="I8" t="s">
-        <v>188</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
+        <v>176</v>
+      </c>
+      <c r="J8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1227,7 +1215,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E9">
         <v>349.99</v>
@@ -1236,21 +1224,21 @@
         <v>259.89</v>
       </c>
       <c r="G9">
+        <v>75</v>
+      </c>
+      <c r="H9">
         <v>26</v>
       </c>
-      <c r="H9" t="s">
-        <v>181</v>
-      </c>
       <c r="I9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9">
-        <v>75</v>
+        <v>177</v>
+      </c>
+      <c r="J9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1259,7 +1247,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E10">
         <v>164.99</v>
@@ -1268,21 +1256,21 @@
         <v>129.89</v>
       </c>
       <c r="G10">
+        <v>195</v>
+      </c>
+      <c r="H10">
         <v>22</v>
       </c>
-      <c r="H10" t="s">
-        <v>179</v>
-      </c>
       <c r="I10" t="s">
-        <v>188</v>
-      </c>
-      <c r="J10">
-        <v>195</v>
+        <v>175</v>
+      </c>
+      <c r="J10" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1291,7 +1279,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>179.99</v>
@@ -1300,21 +1288,21 @@
         <v>129.89</v>
       </c>
       <c r="G11">
+        <v>220</v>
+      </c>
+      <c r="H11">
         <v>28</v>
       </c>
-      <c r="H11" t="s">
-        <v>179</v>
-      </c>
       <c r="I11" t="s">
-        <v>188</v>
-      </c>
-      <c r="J11">
-        <v>220</v>
+        <v>175</v>
+      </c>
+      <c r="J11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1323,7 +1311,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>164.99</v>
@@ -1332,21 +1320,21 @@
         <v>129.89</v>
       </c>
       <c r="G12">
+        <v>220</v>
+      </c>
+      <c r="H12">
         <v>22</v>
       </c>
-      <c r="H12" t="s">
-        <v>179</v>
-      </c>
       <c r="I12" t="s">
-        <v>188</v>
-      </c>
-      <c r="J12">
-        <v>220</v>
+        <v>175</v>
+      </c>
+      <c r="J12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1355,7 +1343,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>159.99</v>
@@ -1364,21 +1352,21 @@
         <v>129.89</v>
       </c>
       <c r="G13">
+        <v>220</v>
+      </c>
+      <c r="H13">
         <v>19</v>
       </c>
-      <c r="H13" t="s">
-        <v>179</v>
-      </c>
       <c r="I13" t="s">
-        <v>188</v>
-      </c>
-      <c r="J13">
-        <v>220</v>
+        <v>175</v>
+      </c>
+      <c r="J13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1387,7 +1375,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <v>164.99</v>
@@ -1396,21 +1384,21 @@
         <v>129.89</v>
       </c>
       <c r="G14">
+        <v>220</v>
+      </c>
+      <c r="H14">
         <v>22</v>
       </c>
-      <c r="H14" t="s">
-        <v>179</v>
-      </c>
       <c r="I14" t="s">
-        <v>188</v>
-      </c>
-      <c r="J14">
-        <v>220</v>
+        <v>175</v>
+      </c>
+      <c r="J14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1419,7 +1407,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15">
         <v>51.49</v>
@@ -1428,21 +1416,21 @@
         <v>39.89</v>
       </c>
       <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
         <v>23</v>
       </c>
-      <c r="H15" t="s">
-        <v>179</v>
-      </c>
       <c r="I15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J15">
-        <v>50</v>
+        <v>175</v>
+      </c>
+      <c r="J15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1451,7 +1439,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E16">
         <v>159.99</v>
@@ -1460,21 +1448,21 @@
         <v>119.99</v>
       </c>
       <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
         <v>26</v>
       </c>
-      <c r="H16" t="s">
-        <v>179</v>
-      </c>
       <c r="I16" t="s">
-        <v>188</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
+        <v>175</v>
+      </c>
+      <c r="J16" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1483,30 +1471,30 @@
         <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17">
-        <v>159.99</v>
+        <v>164.69</v>
       </c>
       <c r="F17">
         <v>119.99</v>
       </c>
       <c r="G17">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s">
-        <v>179</v>
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>188</v>
-      </c>
-      <c r="J17">
-        <v>100</v>
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1515,30 +1503,30 @@
         <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E18">
-        <v>164.69</v>
+        <v>170.59</v>
       </c>
       <c r="F18">
         <v>119.99</v>
       </c>
       <c r="G18">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>179</v>
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
-      </c>
-      <c r="J18">
-        <v>100</v>
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1547,30 +1535,30 @@
         <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E19">
-        <v>170.59</v>
+        <v>129.99</v>
       </c>
       <c r="F19">
-        <v>119.99</v>
+        <v>79.89</v>
       </c>
       <c r="G19">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s">
-        <v>179</v>
+        <v>85</v>
+      </c>
+      <c r="H19">
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
-      </c>
-      <c r="J19">
-        <v>100</v>
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1579,30 +1567,30 @@
         <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20">
-        <v>129.99</v>
+        <v>29.39</v>
       </c>
       <c r="F20">
-        <v>79.89</v>
+        <v>19.89</v>
       </c>
       <c r="G20">
-        <v>39</v>
-      </c>
-      <c r="H20" t="s">
-        <v>182</v>
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
-      </c>
-      <c r="J20">
-        <v>85</v>
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1611,30 +1599,30 @@
         <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E21">
-        <v>29.39</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="F21">
-        <v>19.89</v>
+        <v>39.89</v>
       </c>
       <c r="G21">
-        <v>33</v>
-      </c>
-      <c r="H21" t="s">
-        <v>179</v>
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
-      </c>
-      <c r="J21">
-        <v>20</v>
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>307</v>
+        <v>477</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1643,30 +1631,30 @@
         <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E22">
-        <v>68.98999999999999</v>
+        <v>129.99</v>
       </c>
       <c r="F22">
-        <v>39.89</v>
+        <v>79.89</v>
       </c>
       <c r="G22">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s">
-        <v>179</v>
+        <v>92</v>
+      </c>
+      <c r="H22">
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
-      </c>
-      <c r="J22">
-        <v>50</v>
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1675,30 +1663,30 @@
         <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23">
-        <v>129.99</v>
+        <v>164.69</v>
       </c>
       <c r="F23">
-        <v>79.89</v>
+        <v>119.99</v>
       </c>
       <c r="G23">
-        <v>39</v>
-      </c>
-      <c r="H23" t="s">
-        <v>182</v>
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
-      </c>
-      <c r="J23">
-        <v>92</v>
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1707,30 +1695,30 @@
         <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E24">
-        <v>164.69</v>
+        <v>245.99</v>
       </c>
       <c r="F24">
-        <v>119.99</v>
+        <v>169.89</v>
       </c>
       <c r="G24">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>179</v>
+        <v>200</v>
+      </c>
+      <c r="H24">
+        <v>31</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
-      </c>
-      <c r="J24">
-        <v>100</v>
+        <v>175</v>
+      </c>
+      <c r="J24" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>478</v>
+        <v>680</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1739,30 +1727,30 @@
         <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E25">
-        <v>245.99</v>
+        <v>159.99</v>
       </c>
       <c r="F25">
-        <v>169.89</v>
+        <v>119.99</v>
       </c>
       <c r="G25">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s">
-        <v>179</v>
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
-      </c>
-      <c r="J25">
-        <v>200</v>
+        <v>175</v>
+      </c>
+      <c r="J25" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>669</v>
+        <v>744</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1771,30 +1759,30 @@
         <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E26">
-        <v>159.99</v>
+        <v>164.69</v>
       </c>
       <c r="F26">
         <v>119.99</v>
       </c>
       <c r="G26">
-        <v>26</v>
-      </c>
-      <c r="H26" t="s">
-        <v>179</v>
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
-      </c>
-      <c r="J26">
-        <v>100</v>
+        <v>175</v>
+      </c>
+      <c r="J26" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>729</v>
+        <v>948</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1803,62 +1791,62 @@
         <v>56</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E27">
-        <v>164.69</v>
+        <v>128.89</v>
       </c>
       <c r="F27">
-        <v>119.99</v>
+        <v>79.89</v>
       </c>
       <c r="G27">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
         <v>179</v>
       </c>
-      <c r="I27" t="s">
-        <v>188</v>
-      </c>
-      <c r="J27">
-        <v>100</v>
+      <c r="J27" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>946</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E28">
-        <v>128.89</v>
+        <v>109.99</v>
       </c>
       <c r="F28">
-        <v>79.89</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="G28">
-        <v>39</v>
-      </c>
-      <c r="H28" t="s">
-        <v>183</v>
+        <v>400</v>
+      </c>
+      <c r="H28">
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
-      </c>
-      <c r="J28">
-        <v>90</v>
+        <v>180</v>
+      </c>
+      <c r="J28" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -1867,7 +1855,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>109.99</v>
@@ -1876,53 +1864,53 @@
         <v>89.98999999999999</v>
       </c>
       <c r="G29">
+        <v>400</v>
+      </c>
+      <c r="H29">
         <v>19</v>
       </c>
-      <c r="H29" t="s">
-        <v>184</v>
-      </c>
       <c r="I29" t="s">
-        <v>188</v>
-      </c>
-      <c r="J29">
-        <v>400</v>
+        <v>180</v>
+      </c>
+      <c r="J29" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E30">
-        <v>109.99</v>
+        <v>484.99</v>
       </c>
       <c r="F30">
-        <v>89.98999999999999</v>
+        <v>269.89</v>
       </c>
       <c r="G30">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s">
-        <v>184</v>
+        <v>95</v>
+      </c>
+      <c r="H30">
+        <v>45</v>
       </c>
       <c r="I30" t="s">
-        <v>188</v>
-      </c>
-      <c r="J30">
-        <v>400</v>
+        <v>181</v>
+      </c>
+      <c r="J30" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -1931,30 +1919,30 @@
         <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E31">
-        <v>484.99</v>
+        <v>501.09</v>
       </c>
       <c r="F31">
         <v>269.89</v>
       </c>
       <c r="G31">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>185</v>
+        <v>95</v>
+      </c>
+      <c r="H31">
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>188</v>
-      </c>
-      <c r="J31">
-        <v>95</v>
+        <v>181</v>
+      </c>
+      <c r="J31" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>309</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -1963,7 +1951,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E32">
         <v>501.09</v>
@@ -1972,21 +1960,21 @@
         <v>269.89</v>
       </c>
       <c r="G32">
+        <v>95</v>
+      </c>
+      <c r="H32">
         <v>47</v>
       </c>
-      <c r="H32" t="s">
-        <v>185</v>
-      </c>
       <c r="I32" t="s">
-        <v>188</v>
-      </c>
-      <c r="J32">
-        <v>95</v>
+        <v>181</v>
+      </c>
+      <c r="J32" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -1995,30 +1983,30 @@
         <v>62</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E33">
-        <v>501.09</v>
+        <v>409.99</v>
       </c>
       <c r="F33">
         <v>269.89</v>
       </c>
       <c r="G33">
-        <v>47</v>
-      </c>
-      <c r="H33" t="s">
-        <v>185</v>
+        <v>95</v>
+      </c>
+      <c r="H33">
+        <v>35</v>
       </c>
       <c r="I33" t="s">
-        <v>188</v>
-      </c>
-      <c r="J33">
-        <v>95</v>
+        <v>181</v>
+      </c>
+      <c r="J33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -2027,91 +2015,91 @@
         <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E34">
-        <v>409.99</v>
+        <v>478.79</v>
       </c>
       <c r="F34">
         <v>269.89</v>
       </c>
       <c r="G34">
-        <v>35</v>
-      </c>
-      <c r="H34" t="s">
-        <v>185</v>
+        <v>90</v>
+      </c>
+      <c r="H34">
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>188</v>
-      </c>
-      <c r="J34">
-        <v>95</v>
+        <v>179</v>
+      </c>
+      <c r="J34" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>446</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E35">
-        <v>478.79</v>
+        <v>168.59</v>
       </c>
       <c r="F35">
-        <v>269.89</v>
-      </c>
-      <c r="G35">
-        <v>44</v>
-      </c>
-      <c r="H35" t="s">
-        <v>183</v>
+        <v>139.99</v>
+      </c>
+      <c r="H35">
+        <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>188</v>
-      </c>
-      <c r="J35">
-        <v>90</v>
+        <v>182</v>
+      </c>
+      <c r="J35" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E36">
-        <v>168.59</v>
+        <v>430.59</v>
       </c>
       <c r="F36">
-        <v>139.99</v>
+        <v>349.99</v>
       </c>
       <c r="G36">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s">
-        <v>186</v>
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="J36" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -2120,30 +2108,30 @@
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E37">
-        <v>430.59</v>
+        <v>489.99</v>
       </c>
       <c r="F37">
         <v>349.99</v>
       </c>
       <c r="G37">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
-        <v>179</v>
+        <v>50</v>
+      </c>
+      <c r="H37">
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>188</v>
-      </c>
-      <c r="J37">
-        <v>50</v>
+        <v>175</v>
+      </c>
+      <c r="J37" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>261</v>
+        <v>360</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -2152,30 +2140,30 @@
         <v>67</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E38">
-        <v>489.99</v>
+        <v>239.99</v>
       </c>
       <c r="F38">
-        <v>349.99</v>
+        <v>189.99</v>
       </c>
       <c r="G38">
-        <v>29</v>
-      </c>
-      <c r="H38" t="s">
-        <v>179</v>
+        <v>150</v>
+      </c>
+      <c r="H38">
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>188</v>
-      </c>
-      <c r="J38">
-        <v>50</v>
+        <v>175</v>
+      </c>
+      <c r="J38" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -2184,30 +2172,30 @@
         <v>68</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E39">
-        <v>239.99</v>
+        <v>430.59</v>
       </c>
       <c r="F39">
-        <v>189.99</v>
+        <v>349.99</v>
       </c>
       <c r="G39">
-        <v>21</v>
-      </c>
-      <c r="H39" t="s">
-        <v>179</v>
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>188</v>
-      </c>
-      <c r="J39">
-        <v>150</v>
+        <v>175</v>
+      </c>
+      <c r="J39" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>545</v>
+        <v>620</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -2216,30 +2204,30 @@
         <v>69</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E40">
-        <v>430.59</v>
+        <v>239.99</v>
       </c>
       <c r="F40">
-        <v>349.99</v>
+        <v>189.99</v>
       </c>
       <c r="G40">
-        <v>19</v>
-      </c>
-      <c r="H40" t="s">
-        <v>179</v>
+        <v>150</v>
+      </c>
+      <c r="H40">
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>188</v>
-      </c>
-      <c r="J40">
-        <v>50</v>
+        <v>175</v>
+      </c>
+      <c r="J40" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>614</v>
+        <v>782</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -2248,7 +2236,7 @@
         <v>70</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E41">
         <v>239.99</v>
@@ -2257,21 +2245,21 @@
         <v>189.99</v>
       </c>
       <c r="G41">
+        <v>150</v>
+      </c>
+      <c r="H41">
         <v>21</v>
       </c>
-      <c r="H41" t="s">
-        <v>179</v>
-      </c>
       <c r="I41" t="s">
-        <v>188</v>
-      </c>
-      <c r="J41">
-        <v>150</v>
+        <v>175</v>
+      </c>
+      <c r="J41" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>772</v>
+        <v>837</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -2280,7 +2268,7 @@
         <v>71</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E42">
         <v>239.99</v>
@@ -2289,21 +2277,21 @@
         <v>189.99</v>
       </c>
       <c r="G42">
+        <v>150</v>
+      </c>
+      <c r="H42">
         <v>21</v>
       </c>
-      <c r="H42" t="s">
-        <v>179</v>
-      </c>
       <c r="I42" t="s">
-        <v>188</v>
-      </c>
-      <c r="J42">
-        <v>150</v>
+        <v>175</v>
+      </c>
+      <c r="J42" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -2312,7 +2300,7 @@
         <v>72</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E43">
         <v>239.99</v>
@@ -2321,53 +2309,53 @@
         <v>189.99</v>
       </c>
       <c r="G43">
+        <v>150</v>
+      </c>
+      <c r="H43">
         <v>21</v>
       </c>
-      <c r="H43" t="s">
-        <v>179</v>
-      </c>
       <c r="I43" t="s">
-        <v>188</v>
-      </c>
-      <c r="J43">
-        <v>150</v>
+        <v>175</v>
+      </c>
+      <c r="J43" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>842</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
         <v>73</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E44">
-        <v>239.99</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="F44">
-        <v>189.99</v>
+        <v>54.99</v>
       </c>
       <c r="G44">
-        <v>21</v>
-      </c>
-      <c r="H44" t="s">
-        <v>179</v>
+        <v>400</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
       </c>
       <c r="I44" t="s">
-        <v>188</v>
-      </c>
-      <c r="J44">
-        <v>150</v>
+        <v>175</v>
+      </c>
+      <c r="J44" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -2376,7 +2364,7 @@
         <v>74</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E45">
         <v>64.98999999999999</v>
@@ -2385,117 +2373,117 @@
         <v>54.99</v>
       </c>
       <c r="G45">
+        <v>400</v>
+      </c>
+      <c r="H45">
         <v>16</v>
       </c>
-      <c r="H45" t="s">
-        <v>179</v>
-      </c>
       <c r="I45" t="s">
-        <v>188</v>
-      </c>
-      <c r="J45">
-        <v>400</v>
+        <v>175</v>
+      </c>
+      <c r="J45" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
         <v>75</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E46">
-        <v>64.98999999999999</v>
+        <v>139.99</v>
       </c>
       <c r="F46">
-        <v>54.99</v>
+        <v>89.89</v>
       </c>
       <c r="G46">
-        <v>16</v>
-      </c>
-      <c r="H46" t="s">
-        <v>179</v>
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>36</v>
       </c>
       <c r="I46" t="s">
-        <v>188</v>
-      </c>
-      <c r="J46">
-        <v>400</v>
+        <v>175</v>
+      </c>
+      <c r="J46" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>76</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E47">
-        <v>139.99</v>
+        <v>178.69</v>
       </c>
       <c r="F47">
-        <v>89.89</v>
+        <v>160.99</v>
       </c>
       <c r="G47">
-        <v>36</v>
-      </c>
-      <c r="H47" t="s">
-        <v>179</v>
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>188</v>
-      </c>
-      <c r="J47">
-        <v>100</v>
+        <v>175</v>
+      </c>
+      <c r="J47" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
         <v>77</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E48">
-        <v>178.69</v>
+        <v>630.99</v>
       </c>
       <c r="F48">
-        <v>160.99</v>
+        <v>345.99</v>
       </c>
       <c r="G48">
-        <v>10</v>
-      </c>
-      <c r="H48" t="s">
-        <v>179</v>
+        <v>200</v>
+      </c>
+      <c r="H48">
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>188</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
+        <v>175</v>
+      </c>
+      <c r="J48" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -2504,30 +2492,30 @@
         <v>78</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E49">
-        <v>630.99</v>
+        <v>651.99</v>
       </c>
       <c r="F49">
         <v>345.99</v>
       </c>
       <c r="G49">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>179</v>
+        <v>200</v>
+      </c>
+      <c r="H49">
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>188</v>
-      </c>
-      <c r="J49">
-        <v>200</v>
+        <v>175</v>
+      </c>
+      <c r="J49" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>56</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -2536,30 +2524,30 @@
         <v>79</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E50">
-        <v>651.99</v>
+        <v>542.99</v>
       </c>
       <c r="F50">
-        <v>345.99</v>
+        <v>387.99</v>
       </c>
       <c r="G50">
-        <v>47</v>
-      </c>
-      <c r="H50" t="s">
-        <v>179</v>
+        <v>200</v>
+      </c>
+      <c r="H50">
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>188</v>
-      </c>
-      <c r="J50">
-        <v>200</v>
+        <v>175</v>
+      </c>
+      <c r="J50" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>399</v>
+        <v>671</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -2568,30 +2556,30 @@
         <v>80</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E51">
-        <v>542.99</v>
+        <v>602.99</v>
       </c>
       <c r="F51">
         <v>387.99</v>
       </c>
       <c r="G51">
-        <v>29</v>
-      </c>
-      <c r="H51" t="s">
-        <v>179</v>
+        <v>200</v>
+      </c>
+      <c r="H51">
+        <v>36</v>
       </c>
       <c r="I51" t="s">
-        <v>188</v>
-      </c>
-      <c r="J51">
-        <v>200</v>
+        <v>175</v>
+      </c>
+      <c r="J51" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>659</v>
+        <v>991</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -2600,62 +2588,62 @@
         <v>81</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E52">
-        <v>602.99</v>
+        <v>434.99</v>
       </c>
       <c r="F52">
-        <v>387.99</v>
+        <v>345.99</v>
       </c>
       <c r="G52">
-        <v>36</v>
-      </c>
-      <c r="H52" t="s">
-        <v>179</v>
+        <v>200</v>
+      </c>
+      <c r="H52">
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>188</v>
-      </c>
-      <c r="J52">
-        <v>200</v>
+        <v>175</v>
+      </c>
+      <c r="J52" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>982</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
         <v>82</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E53">
-        <v>434.99</v>
+        <v>179.79</v>
       </c>
       <c r="F53">
-        <v>345.99</v>
+        <v>129.89</v>
       </c>
       <c r="G53">
-        <v>21</v>
-      </c>
-      <c r="H53" t="s">
-        <v>179</v>
+        <v>300</v>
+      </c>
+      <c r="H53">
+        <v>28</v>
       </c>
       <c r="I53" t="s">
-        <v>188</v>
-      </c>
-      <c r="J53">
-        <v>200</v>
+        <v>177</v>
+      </c>
+      <c r="J53" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>103</v>
+        <v>481</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
@@ -2664,30 +2652,30 @@
         <v>83</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E54">
-        <v>179.79</v>
+        <v>135.49</v>
       </c>
       <c r="F54">
         <v>129.89</v>
       </c>
       <c r="G54">
-        <v>28</v>
-      </c>
-      <c r="H54" t="s">
-        <v>181</v>
+        <v>300</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>188</v>
-      </c>
-      <c r="J54">
-        <v>300</v>
+        <v>175</v>
+      </c>
+      <c r="J54" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
@@ -2696,30 +2684,30 @@
         <v>84</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E55">
-        <v>135.49</v>
+        <v>156.49</v>
       </c>
       <c r="F55">
         <v>129.89</v>
       </c>
       <c r="G55">
-        <v>5</v>
-      </c>
-      <c r="H55" t="s">
-        <v>179</v>
+        <v>300</v>
+      </c>
+      <c r="H55">
+        <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>188</v>
-      </c>
-      <c r="J55">
-        <v>300</v>
+        <v>175</v>
+      </c>
+      <c r="J55" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="B56" t="s">
         <v>23</v>
@@ -2728,30 +2716,30 @@
         <v>85</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E56">
-        <v>156.49</v>
+        <v>179.79</v>
       </c>
       <c r="F56">
         <v>129.89</v>
       </c>
       <c r="G56">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
-        <v>179</v>
+        <v>300</v>
+      </c>
+      <c r="H56">
+        <v>28</v>
       </c>
       <c r="I56" t="s">
-        <v>188</v>
-      </c>
-      <c r="J56">
-        <v>300</v>
+        <v>177</v>
+      </c>
+      <c r="J56" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>549</v>
+        <v>770</v>
       </c>
       <c r="B57" t="s">
         <v>23</v>
@@ -2760,62 +2748,62 @@
         <v>86</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E57">
-        <v>179.79</v>
+        <v>156.49</v>
       </c>
       <c r="F57">
         <v>129.89</v>
       </c>
       <c r="G57">
-        <v>28</v>
-      </c>
-      <c r="H57" t="s">
-        <v>181</v>
+        <v>300</v>
+      </c>
+      <c r="H57">
+        <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>188</v>
-      </c>
-      <c r="J57">
-        <v>300</v>
+        <v>175</v>
+      </c>
+      <c r="J57" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>754</v>
+        <v>672</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
         <v>87</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E58">
-        <v>156.49</v>
+        <v>179.79</v>
       </c>
       <c r="F58">
         <v>129.89</v>
       </c>
       <c r="G58">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
-        <v>179</v>
+        <v>360</v>
+      </c>
+      <c r="H58">
+        <v>28</v>
       </c>
       <c r="I58" t="s">
-        <v>188</v>
-      </c>
-      <c r="J58">
-        <v>300</v>
+        <v>177</v>
+      </c>
+      <c r="J58" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -2824,7 +2812,7 @@
         <v>88</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E59">
         <v>179.79</v>
@@ -2833,21 +2821,21 @@
         <v>129.89</v>
       </c>
       <c r="G59">
+        <v>420</v>
+      </c>
+      <c r="H59">
         <v>28</v>
       </c>
-      <c r="H59" t="s">
-        <v>181</v>
-      </c>
       <c r="I59" t="s">
-        <v>188</v>
-      </c>
-      <c r="J59">
-        <v>360</v>
+        <v>183</v>
+      </c>
+      <c r="J59" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>663</v>
+        <v>981</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -2856,7 +2844,7 @@
         <v>89</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E60">
         <v>179.79</v>
@@ -2865,80 +2853,80 @@
         <v>129.89</v>
       </c>
       <c r="G60">
+        <v>300</v>
+      </c>
+      <c r="H60">
         <v>28</v>
       </c>
-      <c r="H60" t="s">
-        <v>187</v>
-      </c>
       <c r="I60" t="s">
-        <v>188</v>
-      </c>
-      <c r="J60">
-        <v>420</v>
+        <v>183</v>
+      </c>
+      <c r="J60" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>973</v>
+        <v>669</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
         <v>90</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E61">
-        <v>179.79</v>
+        <v>79.89</v>
       </c>
       <c r="F61">
-        <v>129.89</v>
+        <v>59.99</v>
       </c>
       <c r="G61">
-        <v>28</v>
-      </c>
-      <c r="H61" t="s">
-        <v>187</v>
+        <v>800</v>
+      </c>
+      <c r="H61">
+        <v>25</v>
       </c>
       <c r="I61" t="s">
-        <v>188</v>
-      </c>
-      <c r="J61">
-        <v>300</v>
+        <v>177</v>
+      </c>
+      <c r="J61" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
         <v>91</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E62">
-        <v>79.89</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F62">
         <v>59.99</v>
       </c>
       <c r="G62">
-        <v>25</v>
-      </c>
-      <c r="H62" t="s">
-        <v>181</v>
+        <v>500</v>
+      </c>
+      <c r="H62">
+        <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>189</v>
-      </c>
-      <c r="J62">
-        <v>800</v>
+        <v>175</v>
+      </c>
+      <c r="J62" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2946,36 +2934,36 @@
         <v>649</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
         <v>92</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E63">
-        <v>71.98999999999999</v>
+        <v>239.99</v>
       </c>
       <c r="F63">
-        <v>59.99</v>
+        <v>189.99</v>
       </c>
       <c r="G63">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
-        <v>179</v>
+        <v>150</v>
+      </c>
+      <c r="H63">
+        <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>188</v>
-      </c>
-      <c r="J63">
-        <v>500</v>
+        <v>175</v>
+      </c>
+      <c r="J63" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>639</v>
+        <v>704</v>
       </c>
       <c r="B64" t="s">
         <v>27</v>
@@ -2984,7 +2972,7 @@
         <v>93</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E64">
         <v>239.99</v>
@@ -2993,21 +2981,21 @@
         <v>189.99</v>
       </c>
       <c r="G64">
+        <v>150</v>
+      </c>
+      <c r="H64">
         <v>21</v>
       </c>
-      <c r="H64" t="s">
-        <v>179</v>
-      </c>
       <c r="I64" t="s">
-        <v>188</v>
-      </c>
-      <c r="J64">
-        <v>150</v>
+        <v>175</v>
+      </c>
+      <c r="J64" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>691</v>
+        <v>897</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
@@ -3016,7 +3004,7 @@
         <v>94</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E65">
         <v>239.99</v>
@@ -3025,53 +3013,53 @@
         <v>189.99</v>
       </c>
       <c r="G65">
+        <v>150</v>
+      </c>
+      <c r="H65">
         <v>21</v>
       </c>
-      <c r="H65" t="s">
-        <v>179</v>
-      </c>
       <c r="I65" t="s">
-        <v>188</v>
-      </c>
-      <c r="J65">
-        <v>150</v>
+        <v>175</v>
+      </c>
+      <c r="J65" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>887</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
         <v>95</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E66">
-        <v>239.99</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="F66">
-        <v>189.99</v>
+        <v>49.99</v>
       </c>
       <c r="G66">
-        <v>21</v>
-      </c>
-      <c r="H66" t="s">
-        <v>179</v>
+        <v>12</v>
+      </c>
+      <c r="H66">
+        <v>45</v>
       </c>
       <c r="I66" t="s">
-        <v>188</v>
-      </c>
-      <c r="J66">
-        <v>150</v>
+        <v>175</v>
+      </c>
+      <c r="J66" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>17</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
         <v>28</v>
@@ -3080,7 +3068,7 @@
         <v>96</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E67">
         <v>89.98999999999999</v>
@@ -3089,53 +3077,53 @@
         <v>49.99</v>
       </c>
       <c r="G67">
+        <v>8</v>
+      </c>
+      <c r="H67">
         <v>45</v>
       </c>
-      <c r="H67" t="s">
-        <v>179</v>
-      </c>
       <c r="I67" t="s">
-        <v>188</v>
-      </c>
-      <c r="J67">
-        <v>12</v>
+        <v>181</v>
+      </c>
+      <c r="J67" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
         <v>97</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E68">
-        <v>89.98999999999999</v>
+        <v>44.59</v>
       </c>
       <c r="F68">
-        <v>59.99</v>
+        <v>29.99</v>
       </c>
       <c r="G68">
-        <v>34</v>
-      </c>
-      <c r="H68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68">
+        <v>33</v>
+      </c>
+      <c r="I68" t="s">
         <v>179</v>
       </c>
-      <c r="I68" t="s">
-        <v>188</v>
-      </c>
-      <c r="J68">
-        <v>8</v>
+      <c r="J68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="B69" t="s">
         <v>29</v>
@@ -3144,7 +3132,7 @@
         <v>98</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E69">
         <v>44.59</v>
@@ -3153,21 +3141,21 @@
         <v>29.99</v>
       </c>
       <c r="G69">
+        <v>50</v>
+      </c>
+      <c r="H69">
         <v>33</v>
       </c>
-      <c r="H69" t="s">
-        <v>183</v>
-      </c>
       <c r="I69" t="s">
-        <v>188</v>
-      </c>
-      <c r="J69">
-        <v>50</v>
+        <v>179</v>
+      </c>
+      <c r="J69" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>369</v>
+        <v>705</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
@@ -3176,7 +3164,7 @@
         <v>99</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E70">
         <v>44.59</v>
@@ -3185,21 +3173,21 @@
         <v>29.99</v>
       </c>
       <c r="G70">
+        <v>50</v>
+      </c>
+      <c r="H70">
         <v>33</v>
       </c>
-      <c r="H70" t="s">
-        <v>183</v>
-      </c>
       <c r="I70" t="s">
-        <v>188</v>
-      </c>
-      <c r="J70">
-        <v>50</v>
+        <v>179</v>
+      </c>
+      <c r="J70" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>407</v>
+        <v>817</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
@@ -3208,30 +3196,30 @@
         <v>100</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E71">
-        <v>28.99</v>
+        <v>64.89</v>
       </c>
       <c r="F71">
-        <v>19.89</v>
+        <v>49.98</v>
       </c>
       <c r="G71">
-        <v>32</v>
-      </c>
-      <c r="H71" t="s">
-        <v>179</v>
+        <v>30</v>
+      </c>
+      <c r="H71">
+        <v>23</v>
       </c>
       <c r="I71" t="s">
-        <v>188</v>
-      </c>
-      <c r="J71">
-        <v>37</v>
+        <v>175</v>
+      </c>
+      <c r="J71" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>693</v>
+        <v>919</v>
       </c>
       <c r="B72" t="s">
         <v>29</v>
@@ -3240,121 +3228,57 @@
         <v>101</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E72">
-        <v>44.59</v>
+        <v>64.89</v>
       </c>
       <c r="F72">
-        <v>29.99</v>
+        <v>49.98</v>
       </c>
       <c r="G72">
-        <v>33</v>
-      </c>
-      <c r="H72" t="s">
-        <v>183</v>
+        <v>30</v>
+      </c>
+      <c r="H72">
+        <v>23</v>
       </c>
       <c r="I72" t="s">
-        <v>188</v>
-      </c>
-      <c r="J72">
-        <v>50</v>
+        <v>175</v>
+      </c>
+      <c r="J72" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>803</v>
+        <v>753</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
         <v>102</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E73">
-        <v>64.89</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="F73">
-        <v>49.98</v>
+        <v>62.89</v>
       </c>
       <c r="G73">
-        <v>23</v>
-      </c>
-      <c r="H73" t="s">
-        <v>179</v>
+        <v>250</v>
+      </c>
+      <c r="H73">
+        <v>31</v>
       </c>
       <c r="I73" t="s">
-        <v>188</v>
-      </c>
-      <c r="J73">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74">
-        <v>906</v>
-      </c>
-      <c r="B74" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" t="s">
-        <v>103</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E74">
-        <v>64.89</v>
-      </c>
-      <c r="F74">
-        <v>49.98</v>
-      </c>
-      <c r="G74">
-        <v>23</v>
-      </c>
-      <c r="H74" t="s">
-        <v>179</v>
-      </c>
-      <c r="I74" t="s">
-        <v>188</v>
-      </c>
-      <c r="J74">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75">
-        <v>741</v>
-      </c>
-      <c r="B75" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E75">
-        <v>89.98999999999999</v>
-      </c>
-      <c r="F75">
-        <v>62.89</v>
-      </c>
-      <c r="G75">
-        <v>31</v>
-      </c>
-      <c r="H75" t="s">
-        <v>179</v>
-      </c>
-      <c r="I75" t="s">
-        <v>188</v>
-      </c>
-      <c r="J75">
-        <v>250</v>
+        <v>175</v>
+      </c>
+      <c r="J73" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3431,8 +3355,6 @@
     <hyperlink ref="D71" r:id="rId70"/>
     <hyperlink ref="D72" r:id="rId71"/>
     <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
